--- a/EGR102-Intro-to-Computing/polymer.xlsx
+++ b/EGR102-Intro-to-Computing/polymer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University-Coursework\EGR102-Intro-to-Computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AD1DAD-6120-4323-BA83-26B96BDAC174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80B323A-56E0-4E2F-BC80-D92D8E71D1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="15795" windowHeight="10080" xr2:uid="{875A8473-1519-41A2-8C6F-37A0492BAD32}"/>
+    <workbookView xWindow="4515" yWindow="2520" windowWidth="15795" windowHeight="10080" xr2:uid="{875A8473-1519-41A2-8C6F-37A0492BAD32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,112 +387,112 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>3.7487781036168135</v>
+        <v>3.7341153470185731</v>
       </c>
       <c r="B1">
-        <v>3.7243401759530794</v>
+        <v>3.7145650048875858</v>
       </c>
       <c r="C1">
-        <v>3.741935483870968</v>
+        <v>3.7262952101661782</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3.7487781036168135</v>
+        <v>3.7292277614858262</v>
       </c>
       <c r="B2">
-        <v>3.7487781036168135</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="C2">
-        <v>3.7487781036168135</v>
+        <v>3.7282502443792773</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3.7536656891495603</v>
+        <v>3.7292277614858262</v>
       </c>
       <c r="B3">
-        <v>3.7487781036168135</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="C3">
-        <v>3.7507331378299122</v>
+        <v>3.7282502443792773</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3.7585532746823072</v>
+        <v>3.7292277614858262</v>
       </c>
       <c r="B4">
-        <v>3.7536656891495603</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="C4">
-        <v>3.7546432062561097</v>
+        <v>3.7272727272727275</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.763440860215054</v>
+        <v>3.7292277614858262</v>
       </c>
       <c r="B5">
-        <v>3.7585532746823072</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="C5">
-        <v>3.759530791788857</v>
+        <v>3.7253176930596288</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.763440860215054</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="B6">
-        <v>3.7585532746823072</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="C6">
-        <v>3.7595307917888561</v>
+        <v>3.7243401759530799</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.7585532746823072</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="B7">
-        <v>3.7536656891495603</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="C7">
-        <v>3.7575757575757578</v>
+        <v>3.7243401759530799</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.7585532746823072</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="B8">
-        <v>3.7585532746823072</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="C8">
-        <v>3.7585532746823072</v>
+        <v>3.7243401759530799</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.7585532746823072</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="B9">
-        <v>3.7536656891495603</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="C9">
-        <v>3.7546432062561097</v>
+        <v>3.7243401759530799</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3.7585532746823072</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="B10">
-        <v>3.7536656891495603</v>
+        <v>3.7243401759530794</v>
       </c>
       <c r="C10">
-        <v>3.756598240469208</v>
+        <v>3.7243401759530799</v>
       </c>
     </row>
   </sheetData>
